--- a/KC 2025-26 Enrolments KPI_TEMPLATE.xlsx
+++ b/KC 2025-26 Enrolments KPI_TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keyanomailca-my.sharepoint.com/personal/bill_guo_keyano_ca/Documents/Documents/KPI-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{7A9ACF02-D1FF-4F79-8842-0E8D8E84691B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A665290-ACB9-42A9-9F8A-711B136BADE8}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{7A9ACF02-D1FF-4F79-8842-0E8D8E84691B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAE35BD8-7BA9-48B5-B8B7-05F10B92681A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="874" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="874" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="29" r:id="rId1"/>
@@ -34,8 +34,8 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'25-26 % Var by School'!$A$2:$AB$106</definedName>
-    <definedName name="_xlcn.WorksheetConnection_AutomatedEnrolmentsKPIUpdateasofNovember12023.xlsxTable1" hidden="1">'[1]Hidden Data'!$A$1:$AD$999999</definedName>
-    <definedName name="_xlcn.WorksheetConnection_HiddenDataA1AC3945" hidden="1">'[1]Hidden Data'!$A$1:$AD$999999</definedName>
+    <definedName name="_xlcn.WorksheetConnection_AutomatedEnrolmentsKPIUpdateasofNovember12023.xlsxTable11" hidden="1">'[1]Hidden Data'!$A$1:$AD$999999</definedName>
+    <definedName name="_xlcn.WorksheetConnection_HiddenDataA1AC39451" hidden="1">'[1]Hidden Data'!$A$1:$AD$999999</definedName>
     <definedName name="demo">#REF!</definedName>
     <definedName name="HD" localSheetId="0">#REF!</definedName>
     <definedName name="HD">#REF!</definedName>
@@ -87,7 +87,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_AutomatedEnrolmentsKPIUpdateasofNovember12023.xlsxTable1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_AutomatedEnrolmentsKPIUpdateasofNovember12023.xlsxTable11"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -96,7 +96,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HiddenDataA1AC3945"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HiddenDataA1AC39451"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="525">
   <si>
     <t>For any additional Inquiries please contact us at institutional.research@keyano.ca or get in touch with the team directly.</t>
   </si>
@@ -1671,6 +1671,30 @@
   </si>
   <si>
     <t>{{test_1}}</t>
+  </si>
+  <si>
+    <t>{{projections_BABUSC_DOMESTIC_Year_1_Summer_PartTime}}</t>
+  </si>
+  <si>
+    <t>{{projections_BABUSC_DOMESTIC_Year_1_Summer_FullTime}}</t>
+  </si>
+  <si>
+    <t>{{projections_BABUSC_DOMESTIC_Year_1_Fall_PartTime}}</t>
+  </si>
+  <si>
+    <t>{{projections_BABUSC_DOMESTIC_Year_1_Fall_FullTime}}</t>
+  </si>
+  <si>
+    <t>{{projections_BABUSC_DOMESTIC_Year_1_Winter_PartTime}}</t>
+  </si>
+  <si>
+    <t>{{projections_BABUSC_DOMESTIC_Year_1_Winter_FullTime}}</t>
+  </si>
+  <si>
+    <t>{{projections_BABUSC_DOMESTIC_Year_1_Spring_PartTime}}</t>
+  </si>
+  <si>
+    <t>{{projections_BABUSC_DOMESTIC_Year_1_Spring_FullTime}}</t>
   </si>
 </sst>
 </file>
@@ -3145,33 +3169,6 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3185,6 +3182,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3207,6 +3213,24 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5206,10 +5230,10 @@
       <c r="A1" s="276" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="247" t="s">
+      <c r="B1" s="238" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="237" t="s">
+      <c r="C1" s="241" t="s">
         <v>170</v>
       </c>
       <c r="D1" s="278" t="s">
@@ -5218,21 +5242,21 @@
       <c r="E1" s="297" t="s">
         <v>242</v>
       </c>
-      <c r="F1" s="250" t="s">
+      <c r="F1" s="244" t="s">
         <v>243</v>
       </c>
-      <c r="G1" s="250" t="s">
+      <c r="G1" s="244" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="281"/>
-      <c r="B2" s="247"/>
-      <c r="C2" s="237"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="241"/>
       <c r="D2" s="278"/>
       <c r="E2" s="298"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="299" t="s">
@@ -8456,8 +8480,8 @@
   <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J107" sqref="J107"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8501,15 +8525,9 @@
       <c r="C2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="76" t="s">
-        <v>398</v>
-      </c>
-      <c r="E2" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="208"/>
@@ -8517,15 +8535,9 @@
       <c r="C3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="76">
-        <v>42.668999999999997</v>
-      </c>
-      <c r="E3" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D3" s="76"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="208"/>
@@ -8533,15 +8545,9 @@
       <c r="C4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="76">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="E4" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="208"/>
@@ -8549,15 +8555,9 @@
       <c r="C5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="76">
-        <v>25.6</v>
-      </c>
-      <c r="E5" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="208"/>
@@ -8565,15 +8565,9 @@
       <c r="C6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="76">
-        <v>19.2</v>
-      </c>
-      <c r="E6" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D6" s="76"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="208"/>
@@ -8581,15 +8575,9 @@
       <c r="C7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="76">
-        <v>19.200000000000003</v>
-      </c>
-      <c r="E7" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D7" s="76"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="208"/>
@@ -8597,15 +8585,9 @@
       <c r="C8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="11">
-        <v>188.26900000000001</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="143">
-        <v>-1</v>
-      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="143"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="208"/>
@@ -8615,15 +8597,9 @@
       <c r="C9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="76">
-        <v>14.5</v>
-      </c>
-      <c r="E9" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D9" s="76"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="208"/>
@@ -8631,15 +8607,9 @@
       <c r="C10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="11">
-        <v>14.5</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="143">
-        <v>-1</v>
-      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="208"/>
@@ -8649,15 +8619,9 @@
       <c r="C11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="76">
-        <v>9.6</v>
-      </c>
-      <c r="E11" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="208"/>
@@ -8665,15 +8629,9 @@
       <c r="C12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="11">
-        <v>9.6</v>
-      </c>
-      <c r="E12" s="111">
-        <v>0</v>
-      </c>
-      <c r="F12" s="143">
-        <v>-1</v>
-      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="208"/>
@@ -8683,15 +8641,9 @@
       <c r="C13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="76">
-        <v>3.3</v>
-      </c>
-      <c r="E13" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D13" s="76"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="208"/>
@@ -8699,15 +8651,9 @@
       <c r="C14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="143">
-        <v>-1</v>
-      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="143"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="208"/>
@@ -8717,15 +8663,9 @@
       <c r="C15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="76">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="E15" s="109">
-        <v>0.308</v>
-      </c>
-      <c r="F15" s="31">
-        <v>-0.884514435695538</v>
-      </c>
+      <c r="D15" s="76"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="208"/>
@@ -8733,15 +8673,9 @@
       <c r="C16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="11">
-        <v>2.6669999999999998</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0.308</v>
-      </c>
-      <c r="F16" s="143">
-        <v>-0.884514435695538</v>
-      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="143"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="208"/>
@@ -8751,15 +8685,9 @@
       <c r="C17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="76">
-        <v>11.737</v>
-      </c>
-      <c r="E17" s="109">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="F17" s="31">
-        <v>-0.96191531055636026</v>
-      </c>
+      <c r="D17" s="76"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="208"/>
@@ -8767,15 +8695,9 @@
       <c r="C18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="11">
-        <v>11.737</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="F18" s="143">
-        <v>-0.96191531055636026</v>
-      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="143"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="208"/>
@@ -8785,15 +8707,9 @@
       <c r="C19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="76">
-        <v>5.5670000000000002</v>
-      </c>
-      <c r="E19" s="109">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="31">
-        <v>-0.98203700377222924</v>
-      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="208"/>
@@ -8801,15 +8717,9 @@
       <c r="C20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="11">
-        <v>5.5670000000000002</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="143">
-        <v>-0.98203700377222924</v>
-      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="143"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="208"/>
@@ -8819,15 +8729,9 @@
       <c r="C21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="76">
-        <v>13.532999999999999</v>
-      </c>
-      <c r="E21" s="109">
-        <v>0.4</v>
-      </c>
-      <c r="F21" s="31">
-        <v>-0.97044262173945173</v>
-      </c>
+      <c r="D21" s="76"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="208"/>
@@ -8835,15 +8739,9 @@
       <c r="C22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="11">
-        <v>13.532999999999999</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="F22" s="143">
-        <v>-0.97044262173945173</v>
-      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="143"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="208"/>
@@ -8853,15 +8751,9 @@
       <c r="C23" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="76">
-        <v>43.2</v>
-      </c>
-      <c r="E23" s="109">
-        <v>9.972999999999999</v>
-      </c>
-      <c r="F23" s="31">
-        <v>-0.76914351851851859</v>
-      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="208"/>
@@ -8869,15 +8761,9 @@
       <c r="C24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="11">
-        <v>43.2</v>
-      </c>
-      <c r="E24" s="11">
-        <v>9.972999999999999</v>
-      </c>
-      <c r="F24" s="143">
-        <v>-0.76914351851851859</v>
-      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="143"/>
       <c r="G24" s="43"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -8888,15 +8774,9 @@
       <c r="C25" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D25" s="76" t="s">
-        <v>398</v>
-      </c>
-      <c r="E25" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="208"/>
@@ -8904,15 +8784,9 @@
       <c r="C26" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="D26" s="11">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-      <c r="F26" s="143" t="s">
-        <v>441</v>
-      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="143"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="208"/>
@@ -8922,15 +8796,9 @@
       <c r="C27" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="76">
-        <v>7.0840000000000005</v>
-      </c>
-      <c r="E27" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D27" s="76"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="208"/>
@@ -8938,15 +8806,9 @@
       <c r="C28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="11">
-        <v>7.0840000000000005</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-      <c r="F28" s="143">
-        <v>-1</v>
-      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="143"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="208"/>
@@ -8956,15 +8818,9 @@
       <c r="C29" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="76">
-        <v>12.967000000000001</v>
-      </c>
-      <c r="E29" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D29" s="76"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="208"/>
@@ -8972,15 +8828,9 @@
       <c r="C30" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="11">
-        <v>12.967000000000001</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="143">
-        <v>-1</v>
-      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="143"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="208"/>
@@ -8990,15 +8840,9 @@
       <c r="C31" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="76">
-        <v>2.54</v>
-      </c>
-      <c r="E31" s="109">
-        <v>0.75</v>
-      </c>
-      <c r="F31" s="31">
-        <v>-0.70472440944881898</v>
-      </c>
+      <c r="D31" s="76"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="208"/>
@@ -9006,15 +8850,9 @@
       <c r="C32" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="76">
-        <v>55.5</v>
-      </c>
-      <c r="E32" s="109">
-        <v>0.875</v>
-      </c>
-      <c r="F32" s="31">
-        <v>-0.98423423423423428</v>
-      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="208"/>
@@ -9022,15 +8860,9 @@
       <c r="C33" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="76">
-        <v>30.289999999999996</v>
-      </c>
-      <c r="E33" s="109">
-        <v>8</v>
-      </c>
-      <c r="F33" s="31">
-        <v>-0.73588643116540109</v>
-      </c>
+      <c r="D33" s="76"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="208"/>
@@ -9038,15 +8870,9 @@
       <c r="C34" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="76" t="s">
-        <v>398</v>
-      </c>
-      <c r="E34" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D34" s="76"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="208"/>
@@ -9054,15 +8880,9 @@
       <c r="C35" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="76">
-        <v>71.25</v>
-      </c>
-      <c r="E35" s="109">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="F35" s="31">
-        <v>-0.99136842105263157</v>
-      </c>
+      <c r="D35" s="76"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="31"/>
       <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -9071,15 +8891,9 @@
       <c r="C36" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="11">
-        <v>159.57999999999998</v>
-      </c>
-      <c r="E36" s="11">
-        <v>10.24</v>
-      </c>
-      <c r="F36" s="143">
-        <v>-0.93583155783932825</v>
-      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="143"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="208"/>
@@ -9089,15 +8903,9 @@
       <c r="C37" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="76" t="s">
-        <v>398</v>
-      </c>
-      <c r="E37" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D37" s="76"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="208"/>
@@ -9105,15 +8913,9 @@
       <c r="C38" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="76" t="s">
-        <v>398</v>
-      </c>
-      <c r="E38" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D38" s="76"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="208"/>
@@ -9121,15 +8923,9 @@
       <c r="C39" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="76">
-        <v>6.967741935483871</v>
-      </c>
-      <c r="E39" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D39" s="76"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="208"/>
@@ -9137,15 +8933,9 @@
       <c r="C40" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="76" t="s">
-        <v>398</v>
-      </c>
-      <c r="E40" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F40" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D40" s="76"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="208"/>
@@ -9153,15 +8943,9 @@
       <c r="C41" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="76" t="s">
-        <v>398</v>
-      </c>
-      <c r="E41" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D41" s="76"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="31"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="208"/>
@@ -9169,15 +8953,9 @@
       <c r="C42" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="11">
-        <v>6.967741935483871</v>
-      </c>
-      <c r="E42" s="11">
-        <v>0</v>
-      </c>
-      <c r="F42" s="143">
-        <v>-1</v>
-      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="143"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="208"/>
@@ -9187,15 +8965,9 @@
       <c r="C43" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="76" t="s">
-        <v>398</v>
-      </c>
-      <c r="E43" s="109">
-        <v>0.158</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D43" s="76"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="31"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="208"/>
@@ -9203,15 +8975,9 @@
       <c r="C44" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="11">
-        <v>0</v>
-      </c>
-      <c r="E44" s="11">
-        <v>0.158</v>
-      </c>
-      <c r="F44" s="143" t="s">
-        <v>441</v>
-      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="143"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="208"/>
@@ -9221,15 +8987,9 @@
       <c r="C45" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="76" t="s">
-        <v>398</v>
-      </c>
-      <c r="E45" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D45" s="76"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="31"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="208"/>
@@ -9237,15 +8997,9 @@
       <c r="C46" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="11">
-        <v>0</v>
-      </c>
-      <c r="E46" s="11">
-        <v>0</v>
-      </c>
-      <c r="F46" s="143" t="s">
-        <v>441</v>
-      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="143"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="208"/>
@@ -9255,15 +9009,9 @@
       <c r="C47" s="97" t="s">
         <v>436</v>
       </c>
-      <c r="D47" s="76" t="s">
-        <v>398</v>
-      </c>
-      <c r="E47" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F47" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D47" s="76"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="31"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="208"/>
@@ -9271,15 +9019,9 @@
       <c r="C48" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="11">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0</v>
-      </c>
-      <c r="F48" s="143" t="s">
-        <v>441</v>
-      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="143"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="208"/>
@@ -9287,15 +9029,9 @@
         <v>100</v>
       </c>
       <c r="C49" s="89"/>
-      <c r="D49" s="23">
-        <v>478.97174193548381</v>
-      </c>
-      <c r="E49" s="23">
-        <v>21.625999999999998</v>
-      </c>
-      <c r="F49" s="144">
-        <v>-0.95484911090451563</v>
-      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="144"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="202" t="s">
@@ -9307,15 +9043,9 @@
       <c r="C50" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="76">
-        <v>6.8</v>
-      </c>
-      <c r="E50" s="109">
-        <v>6.4000000000000012</v>
-      </c>
-      <c r="F50" s="31">
-        <v>-5.8823529411764497E-2</v>
-      </c>
+      <c r="D50" s="76"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="31"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="202"/>
@@ -9323,15 +9053,9 @@
       <c r="C51" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="11">
-        <v>6.8</v>
-      </c>
-      <c r="E51" s="11">
-        <v>6.4000000000000012</v>
-      </c>
-      <c r="F51" s="143">
-        <v>-5.8823529411764497E-2</v>
-      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="143"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="202"/>
@@ -9341,15 +9065,9 @@
       <c r="C52" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="76">
-        <v>59.167000000000002</v>
-      </c>
-      <c r="E52" s="109">
-        <v>18.537000000000006</v>
-      </c>
-      <c r="F52" s="31">
-        <v>-0.68670035661770912</v>
-      </c>
+      <c r="D52" s="76"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="31"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="202"/>
@@ -9357,15 +9075,9 @@
       <c r="C53" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="76">
-        <v>230.13399999999996</v>
-      </c>
-      <c r="E53" s="109">
-        <v>101.73099999999994</v>
-      </c>
-      <c r="F53" s="31">
-        <v>-0.55794884719337445</v>
-      </c>
+      <c r="D53" s="76"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="31"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="202"/>
@@ -9373,15 +9085,9 @@
       <c r="C54" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="76">
-        <v>14.333</v>
-      </c>
-      <c r="E54" s="109">
-        <v>9.7000000000000017E-2</v>
-      </c>
-      <c r="F54" s="31">
-        <v>-0.99323240075350594</v>
-      </c>
+      <c r="D54" s="76"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="31"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="202"/>
@@ -9389,15 +9095,9 @@
       <c r="C55" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="76">
-        <v>115.833</v>
-      </c>
-      <c r="E55" s="109">
-        <v>37.399999999999956</v>
-      </c>
-      <c r="F55" s="31">
-        <v>-0.67712137301114572</v>
-      </c>
+      <c r="D55" s="76"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="31"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="202"/>
@@ -9405,15 +9105,9 @@
       <c r="C56" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="11">
-        <v>419.46699999999998</v>
-      </c>
-      <c r="E56" s="11">
-        <v>157.7649999999999</v>
-      </c>
-      <c r="F56" s="143">
-        <v>-0.62389174833777172</v>
-      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="143"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="202"/>
@@ -9423,15 +9117,9 @@
       <c r="C57" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="76">
-        <v>24.307000000000002</v>
-      </c>
-      <c r="E57" s="109">
-        <v>3.2</v>
-      </c>
-      <c r="F57" s="31">
-        <v>-0.86835068087382239</v>
-      </c>
+      <c r="D57" s="76"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="31"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="202"/>
@@ -9439,15 +9127,9 @@
       <c r="C58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="76">
-        <v>109.65499999999999</v>
-      </c>
-      <c r="E58" s="109">
-        <v>18.683000000000003</v>
-      </c>
-      <c r="F58" s="31">
-        <v>-0.82962017235876151</v>
-      </c>
+      <c r="D58" s="76"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="31"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="202"/>
@@ -9455,15 +9137,9 @@
       <c r="C59" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="11">
-        <v>133.96199999999999</v>
-      </c>
-      <c r="E59" s="11">
-        <v>21.883000000000003</v>
-      </c>
-      <c r="F59" s="143">
-        <v>-0.83664770606589922</v>
-      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="143"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="202"/>
@@ -9473,15 +9149,9 @@
       <c r="C60" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D60" s="76" t="s">
-        <v>398</v>
-      </c>
-      <c r="E60" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D60" s="76"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="31"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="202"/>
@@ -9489,15 +9159,9 @@
       <c r="C61" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D61" s="76">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E61" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D61" s="76"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="31"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="202"/>
@@ -9505,15 +9169,9 @@
       <c r="C62" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D62" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E62" s="11">
-        <v>0</v>
-      </c>
-      <c r="F62" s="143">
-        <v>-1</v>
-      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="143"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="202"/>
@@ -9523,15 +9181,9 @@
       <c r="C63" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="D63" s="76">
-        <v>41.199999999999996</v>
-      </c>
-      <c r="E63" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D63" s="76"/>
+      <c r="E63" s="109"/>
+      <c r="F63" s="31"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="202"/>
@@ -9539,15 +9191,9 @@
       <c r="C64" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="D64" s="11">
-        <v>41.199999999999996</v>
-      </c>
-      <c r="E64" s="11">
-        <v>0</v>
-      </c>
-      <c r="F64" s="143">
-        <v>-1</v>
-      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="143"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="202"/>
@@ -9557,15 +9203,9 @@
       <c r="C65" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D65" s="76">
-        <v>64.033000000000001</v>
-      </c>
-      <c r="E65" s="109">
-        <v>3.7000000000000006</v>
-      </c>
-      <c r="F65" s="31">
-        <v>-0.94221729420767419</v>
-      </c>
+      <c r="D65" s="76"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="31"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="202"/>
@@ -9573,15 +9213,9 @@
       <c r="C66" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D66" s="11">
-        <v>64.033000000000001</v>
-      </c>
-      <c r="E66" s="11">
-        <v>3.7000000000000006</v>
-      </c>
-      <c r="F66" s="143">
-        <v>-0.94221729420767419</v>
-      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="143"/>
       <c r="I66" s="140"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -9592,15 +9226,9 @@
       <c r="C67" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D67" s="76">
-        <v>16.234000000000002</v>
-      </c>
-      <c r="E67" s="109">
-        <v>3.7319999999999998</v>
-      </c>
-      <c r="F67" s="31">
-        <v>-0.77011211038561045</v>
-      </c>
+      <c r="D67" s="76"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="31"/>
       <c r="I67" s="140"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -9609,15 +9237,9 @@
       <c r="C68" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D68" s="11">
-        <v>16.234000000000002</v>
-      </c>
-      <c r="E68" s="141">
-        <v>3.7319999999999998</v>
-      </c>
-      <c r="F68" s="143">
-        <v>-0.77011211038561045</v>
-      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="141"/>
+      <c r="F68" s="143"/>
       <c r="I68" s="140"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -9628,15 +9250,9 @@
       <c r="C69" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D69" s="76">
-        <v>12.9</v>
-      </c>
-      <c r="E69" s="109">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F69" s="31">
-        <v>-0.98705426356589143</v>
-      </c>
+      <c r="D69" s="76"/>
+      <c r="E69" s="109"/>
+      <c r="F69" s="31"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="202"/>
@@ -9644,15 +9260,9 @@
       <c r="C70" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D70" s="11">
-        <v>12.9</v>
-      </c>
-      <c r="E70" s="11">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F70" s="143">
-        <v>-0.98705426356589143</v>
-      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="143"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="202"/>
@@ -9662,15 +9272,9 @@
       <c r="C71" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D71" s="76" t="s">
-        <v>398</v>
-      </c>
-      <c r="E71" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F71" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D71" s="76"/>
+      <c r="E71" s="109"/>
+      <c r="F71" s="31"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="202"/>
@@ -9678,15 +9282,9 @@
       <c r="C72" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="11">
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <v>0</v>
-      </c>
-      <c r="F72" s="143" t="s">
-        <v>441</v>
-      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="143"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="202"/>
@@ -9696,15 +9294,9 @@
       <c r="C73" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D73" s="76">
-        <v>9.5</v>
-      </c>
-      <c r="E73" s="109">
-        <v>1.35</v>
-      </c>
-      <c r="F73" s="31">
-        <v>-0.85789473684210527</v>
-      </c>
+      <c r="D73" s="76"/>
+      <c r="E73" s="109"/>
+      <c r="F73" s="31"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="202"/>
@@ -9712,15 +9304,9 @@
       <c r="C74" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D74" s="11">
-        <v>9.5</v>
-      </c>
-      <c r="E74" s="11">
-        <v>1.35</v>
-      </c>
-      <c r="F74" s="143">
-        <v>-0.85789473684210527</v>
-      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="143"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="202"/>
@@ -9730,15 +9316,9 @@
       <c r="C75" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D75" s="76">
-        <v>88.3</v>
-      </c>
-      <c r="E75" s="109">
-        <v>8.4729999999999972</v>
-      </c>
-      <c r="F75" s="31">
-        <v>-0.90404303510758777</v>
-      </c>
+      <c r="D75" s="76"/>
+      <c r="E75" s="109"/>
+      <c r="F75" s="31"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="202"/>
@@ -9746,15 +9326,9 @@
       <c r="C76" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D76" s="11">
-        <v>88.3</v>
-      </c>
-      <c r="E76" s="11">
-        <v>8.4729999999999972</v>
-      </c>
-      <c r="F76" s="143">
-        <v>-0.90404303510758777</v>
-      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="143"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="202"/>
@@ -9764,15 +9338,9 @@
       <c r="C77" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D77" s="76">
-        <v>18.184999999999999</v>
-      </c>
-      <c r="E77" s="109">
-        <v>1.9000000000000001</v>
-      </c>
-      <c r="F77" s="31">
-        <v>-0.89551828430024738</v>
-      </c>
+      <c r="D77" s="76"/>
+      <c r="E77" s="109"/>
+      <c r="F77" s="31"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="202"/>
@@ -9780,15 +9348,9 @@
       <c r="C78" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="D78" s="11">
-        <v>18.184999999999999</v>
-      </c>
-      <c r="E78" s="11">
-        <v>1.9000000000000001</v>
-      </c>
-      <c r="F78" s="143">
-        <v>-0.89551828430024738</v>
-      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="143"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="202"/>
@@ -9798,15 +9360,9 @@
       <c r="C79" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D79" s="76">
-        <v>28.166000000000004</v>
-      </c>
-      <c r="E79" s="109">
-        <v>9.25</v>
-      </c>
-      <c r="F79" s="31">
-        <v>-0.6715898601150323</v>
-      </c>
+      <c r="D79" s="76"/>
+      <c r="E79" s="109"/>
+      <c r="F79" s="31"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="202"/>
@@ -9814,15 +9370,9 @@
       <c r="C80" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D80" s="11">
-        <v>28.166000000000004</v>
-      </c>
-      <c r="E80" s="11">
-        <v>9.25</v>
-      </c>
-      <c r="F80" s="143">
-        <v>-0.6715898601150323</v>
-      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="143"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="202"/>
@@ -9832,15 +9382,9 @@
       <c r="C81" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D81" s="76">
-        <v>28.75</v>
-      </c>
-      <c r="E81" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="D81" s="76"/>
+      <c r="E81" s="109"/>
+      <c r="F81" s="14"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="202"/>
@@ -9848,15 +9392,9 @@
       <c r="C82" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D82" s="11">
-        <v>28.75</v>
-      </c>
-      <c r="E82" s="141">
-        <v>0</v>
-      </c>
-      <c r="F82" s="143">
-        <v>-1</v>
-      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" s="141"/>
+      <c r="F82" s="143"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="202"/>
@@ -9866,15 +9404,9 @@
       <c r="C83" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D83" s="76">
-        <v>70.341000000000008</v>
-      </c>
-      <c r="E83" s="109">
-        <v>16.450000000000003</v>
-      </c>
-      <c r="F83" s="31">
-        <v>-0.76613923600744938</v>
-      </c>
+      <c r="D83" s="76"/>
+      <c r="E83" s="109"/>
+      <c r="F83" s="31"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="202"/>
@@ -9882,15 +9414,9 @@
       <c r="C84" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D84" s="11">
-        <v>70.341000000000008</v>
-      </c>
-      <c r="E84" s="11">
-        <v>16.450000000000003</v>
-      </c>
-      <c r="F84" s="143">
-        <v>-0.76613923600744938</v>
-      </c>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="143"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="202"/>
@@ -9900,15 +9426,9 @@
       <c r="C85" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D85" s="76">
-        <v>57.086999999999996</v>
-      </c>
-      <c r="E85" s="109">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="F85" s="31">
-        <v>-0.99043565084870466</v>
-      </c>
+      <c r="D85" s="76"/>
+      <c r="E85" s="109"/>
+      <c r="F85" s="31"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="202"/>
@@ -9916,15 +9436,9 @@
       <c r="C86" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D86" s="11">
-        <v>57.086999999999996</v>
-      </c>
-      <c r="E86" s="11">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="F86" s="143">
-        <v>-0.99043565084870466</v>
-      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="143"/>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="202"/>
@@ -9932,15 +9446,9 @@
         <v>136</v>
       </c>
       <c r="C87" s="89"/>
-      <c r="D87" s="23">
-        <v>997.12500000000011</v>
-      </c>
-      <c r="E87" s="23">
-        <v>231.61599999999987</v>
-      </c>
-      <c r="F87" s="144">
-        <v>-0.76771618402908381</v>
-      </c>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="144"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="202" t="s">
@@ -9952,15 +9460,9 @@
       <c r="C88" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D88" s="76">
-        <v>67.5</v>
-      </c>
-      <c r="E88" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F88" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D88" s="76"/>
+      <c r="E88" s="109"/>
+      <c r="F88" s="31"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="202"/>
@@ -9968,15 +9470,9 @@
       <c r="C89" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D89" s="11">
-        <v>67.5</v>
-      </c>
-      <c r="E89" s="11">
-        <v>0</v>
-      </c>
-      <c r="F89" s="143">
-        <v>-1</v>
-      </c>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="143"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="202"/>
@@ -9986,15 +9482,9 @@
       <c r="C90" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D90" s="76">
-        <v>11.866666666666665</v>
-      </c>
-      <c r="E90" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F90" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D90" s="76"/>
+      <c r="E90" s="109"/>
+      <c r="F90" s="31"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="202"/>
@@ -10002,15 +9492,9 @@
       <c r="C91" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D91" s="11">
-        <v>11.866666666666665</v>
-      </c>
-      <c r="E91" s="11">
-        <v>0</v>
-      </c>
-      <c r="F91" s="143">
-        <v>-1</v>
-      </c>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="143"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="202"/>
@@ -10020,15 +9504,9 @@
       <c r="C92" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D92" s="76">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E92" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F92" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D92" s="76"/>
+      <c r="E92" s="109"/>
+      <c r="F92" s="31"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="202"/>
@@ -10036,15 +9514,9 @@
       <c r="C93" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D93" s="76">
-        <v>0.2</v>
-      </c>
-      <c r="E93" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F93" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D93" s="76"/>
+      <c r="E93" s="109"/>
+      <c r="F93" s="31"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="202"/>
@@ -10052,15 +9524,9 @@
       <c r="C94" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D94" s="76">
-        <v>30.901666666666667</v>
-      </c>
-      <c r="E94" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F94" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D94" s="76"/>
+      <c r="E94" s="109"/>
+      <c r="F94" s="31"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="202"/>
@@ -10068,15 +9534,9 @@
       <c r="C95" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D95" s="76" t="s">
-        <v>398</v>
-      </c>
-      <c r="E95" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F95" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D95" s="76"/>
+      <c r="E95" s="109"/>
+      <c r="F95" s="31"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="202"/>
@@ -10084,15 +9544,9 @@
       <c r="C96" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D96" s="76">
-        <v>2.5</v>
-      </c>
-      <c r="E96" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F96" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D96" s="76"/>
+      <c r="E96" s="109"/>
+      <c r="F96" s="31"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="202"/>
@@ -10100,15 +9554,9 @@
       <c r="C97" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D97" s="11">
-        <v>33.768333333333331</v>
-      </c>
-      <c r="E97" s="11">
-        <v>0</v>
-      </c>
-      <c r="F97" s="143">
-        <v>-1</v>
-      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="143"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="202"/>
@@ -10118,15 +9566,9 @@
       <c r="C98" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D98" s="76">
-        <v>13.532999999999999</v>
-      </c>
-      <c r="E98" s="109">
-        <v>0.6</v>
-      </c>
-      <c r="F98" s="31">
-        <v>-0.95566393260917759</v>
-      </c>
+      <c r="D98" s="76"/>
+      <c r="E98" s="109"/>
+      <c r="F98" s="31"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="202"/>
@@ -10134,15 +9576,9 @@
       <c r="C99" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D99" s="11">
-        <v>13.532999999999999</v>
-      </c>
-      <c r="E99" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="F99" s="143">
-        <v>-0.95566393260917759</v>
-      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="143"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="202"/>
@@ -10152,15 +9588,9 @@
       <c r="C100" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D100" s="76">
-        <v>4.0670000000000002</v>
-      </c>
-      <c r="E100" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F100" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D100" s="76"/>
+      <c r="E100" s="109"/>
+      <c r="F100" s="31"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="202"/>
@@ -10168,15 +9598,9 @@
       <c r="C101" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D101" s="11">
-        <v>4.0670000000000002</v>
-      </c>
-      <c r="E101" s="11">
-        <v>0</v>
-      </c>
-      <c r="F101" s="143">
-        <v>-1</v>
-      </c>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="143"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="202"/>
@@ -10186,15 +9610,9 @@
       <c r="C102" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D102" s="76">
-        <v>43.866</v>
-      </c>
-      <c r="E102" s="109">
-        <v>8</v>
-      </c>
-      <c r="F102" s="31">
-        <v>-0.81762640769616557</v>
-      </c>
+      <c r="D102" s="76"/>
+      <c r="E102" s="109"/>
+      <c r="F102" s="31"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="202"/>
@@ -10202,15 +9620,9 @@
       <c r="C103" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D103" s="76">
-        <v>14.5</v>
-      </c>
-      <c r="E103" s="109">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F103" s="31">
-        <v>-0.95862068965517244</v>
-      </c>
+      <c r="D103" s="76"/>
+      <c r="E103" s="109"/>
+      <c r="F103" s="31"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="202"/>
@@ -10218,15 +9630,9 @@
       <c r="C104" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D104" s="11">
-        <v>58.366</v>
-      </c>
-      <c r="E104" s="11">
-        <v>8.6</v>
-      </c>
-      <c r="F104" s="143">
-        <v>-0.85265394236370495</v>
-      </c>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="143"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="202"/>
@@ -10236,15 +9642,9 @@
       <c r="C105" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D105" s="76">
-        <v>15.725000000000001</v>
-      </c>
-      <c r="E105" s="109" t="s">
-        <v>398</v>
-      </c>
-      <c r="F105" s="31" t="s">
-        <v>441</v>
-      </c>
+      <c r="D105" s="76"/>
+      <c r="E105" s="109"/>
+      <c r="F105" s="31"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="202"/>
@@ -10252,15 +9652,9 @@
       <c r="C106" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D106" s="11">
-        <v>15.725000000000001</v>
-      </c>
-      <c r="E106" s="11">
-        <v>0</v>
-      </c>
-      <c r="F106" s="143">
-        <v>-1</v>
-      </c>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="143"/>
       <c r="H106" s="65"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -10271,15 +9665,9 @@
       <c r="C107" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D107" s="76">
-        <v>183.989</v>
-      </c>
-      <c r="E107" s="109">
-        <v>35.544000000000025</v>
-      </c>
-      <c r="F107" s="31">
-        <v>-0.80681453782563073</v>
-      </c>
+      <c r="D107" s="76"/>
+      <c r="E107" s="109"/>
+      <c r="F107" s="31"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="202"/>
@@ -10287,15 +9675,9 @@
       <c r="C108" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D108" s="11">
-        <v>183.989</v>
-      </c>
-      <c r="E108" s="11">
-        <v>35.544000000000025</v>
-      </c>
-      <c r="F108" s="143">
-        <v>-0.80681453782563073</v>
-      </c>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="143"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="202"/>
@@ -10305,15 +9687,9 @@
       <c r="C109" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D109" s="76">
-        <v>8.2330000000000005</v>
-      </c>
-      <c r="E109" s="109">
-        <v>0.1</v>
-      </c>
-      <c r="F109" s="31">
-        <v>-0.98785375926150853</v>
-      </c>
+      <c r="D109" s="76"/>
+      <c r="E109" s="109"/>
+      <c r="F109" s="31"/>
       <c r="H109" s="64"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -10322,15 +9698,9 @@
       <c r="C110" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D110" s="11">
-        <v>8.2330000000000005</v>
-      </c>
-      <c r="E110" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="F110" s="143">
-        <v>-0.98785375926150853</v>
-      </c>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="143"/>
       <c r="H110" s="65"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -10341,15 +9711,9 @@
       <c r="C111" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D111" s="76">
-        <v>2.7</v>
-      </c>
-      <c r="E111" s="109">
-        <v>0.2</v>
-      </c>
-      <c r="F111" s="31">
-        <v>-0.92592592592592593</v>
-      </c>
+      <c r="D111" s="76"/>
+      <c r="E111" s="109"/>
+      <c r="F111" s="31"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="202"/>
@@ -10357,15 +9721,9 @@
       <c r="C112" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D112" s="11">
-        <v>2.7</v>
-      </c>
-      <c r="E112" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="F112" s="143">
-        <v>-0.92592592592592593</v>
-      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="143"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="202"/>
@@ -10373,15 +9731,9 @@
         <v>165</v>
       </c>
       <c r="C113" s="91"/>
-      <c r="D113" s="23">
-        <v>399.74799999999999</v>
-      </c>
-      <c r="E113" s="23">
-        <v>45.044000000000032</v>
-      </c>
-      <c r="F113" s="145">
-        <v>-0.88731901097691535</v>
-      </c>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="145"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="203" t="s">
@@ -10389,15 +9741,9 @@
       </c>
       <c r="B114" s="204"/>
       <c r="C114" s="94"/>
-      <c r="D114" s="24">
-        <v>1875.8447419354839</v>
-      </c>
-      <c r="E114" s="24">
-        <v>298.28599999999989</v>
-      </c>
-      <c r="F114" s="146">
-        <v>-0.84098577385875206</v>
-      </c>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="146"/>
     </row>
     <row r="115" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="201" t="s">
@@ -10496,9 +9842,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AC107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10513,60 +9859,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="238" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="248" t="s">
+      <c r="B1" s="239" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="237" t="s">
+      <c r="C1" s="241" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="250" t="s">
+      <c r="D1" s="244" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="252" t="s">
+      <c r="E1" s="246" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="254" t="s">
+      <c r="F1" s="248" t="s">
         <v>432</v>
       </c>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="236" t="s">
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="242" t="s">
         <v>433</v>
       </c>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="256"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="236" t="s">
+      <c r="M1" s="241"/>
+      <c r="N1" s="241"/>
+      <c r="O1" s="241"/>
+      <c r="P1" s="250"/>
+      <c r="Q1" s="243"/>
+      <c r="R1" s="242" t="s">
         <v>434</v>
       </c>
-      <c r="S1" s="237"/>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="236" t="s">
+      <c r="S1" s="241"/>
+      <c r="T1" s="241"/>
+      <c r="U1" s="241"/>
+      <c r="V1" s="241"/>
+      <c r="W1" s="243"/>
+      <c r="X1" s="242" t="s">
         <v>435</v>
       </c>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="237"/>
-      <c r="AA1" s="237"/>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="237"/>
+      <c r="Y1" s="241"/>
+      <c r="Z1" s="241"/>
+      <c r="AA1" s="241"/>
+      <c r="AB1" s="241"/>
+      <c r="AC1" s="241"/>
     </row>
     <row r="2" spans="1:29" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="247"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="253"/>
+      <c r="A2" s="238"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="161" t="s">
         <v>172</v>
       </c>
@@ -10644,7 +9990,7 @@
       <c r="A3" s="207" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="239" t="s">
+      <c r="B3" s="251" t="s">
         <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -10683,7 +10029,7 @@
     </row>
     <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="208"/>
-      <c r="B4" s="240"/>
+      <c r="B4" s="252"/>
       <c r="C4" s="231" t="s">
         <v>197</v>
       </c>
@@ -10720,7 +10066,7 @@
     </row>
     <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="208"/>
-      <c r="B5" s="240"/>
+      <c r="B5" s="252"/>
       <c r="C5" s="232"/>
       <c r="D5" s="106" t="s">
         <v>447</v>
@@ -10755,7 +10101,7 @@
     </row>
     <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="208"/>
-      <c r="B6" s="240"/>
+      <c r="B6" s="252"/>
       <c r="C6" s="231" t="s">
         <v>198</v>
       </c>
@@ -10792,7 +10138,7 @@
     </row>
     <row r="7" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="208"/>
-      <c r="B7" s="240"/>
+      <c r="B7" s="252"/>
       <c r="C7" s="232"/>
       <c r="D7" s="106" t="s">
         <v>448</v>
@@ -10827,7 +10173,7 @@
     </row>
     <row r="8" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="208"/>
-      <c r="B8" s="240"/>
+      <c r="B8" s="252"/>
       <c r="C8" s="231" t="s">
         <v>199</v>
       </c>
@@ -10864,7 +10210,7 @@
     </row>
     <row r="9" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="208"/>
-      <c r="B9" s="240"/>
+      <c r="B9" s="252"/>
       <c r="C9" s="232"/>
       <c r="D9" s="106" t="s">
         <v>449</v>
@@ -10899,8 +10245,8 @@
     </row>
     <row r="10" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="208"/>
-      <c r="B10" s="240"/>
-      <c r="C10" s="241" t="s">
+      <c r="B10" s="252"/>
+      <c r="C10" s="253" t="s">
         <v>200</v>
       </c>
       <c r="D10" s="106" t="s">
@@ -10936,8 +10282,8 @@
     </row>
     <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="208"/>
-      <c r="B11" s="240"/>
-      <c r="C11" s="242"/>
+      <c r="B11" s="252"/>
+      <c r="C11" s="254"/>
       <c r="D11" s="106" t="s">
         <v>450</v>
       </c>
@@ -10971,7 +10317,7 @@
     </row>
     <row r="12" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="208"/>
-      <c r="B12" s="240"/>
+      <c r="B12" s="252"/>
       <c r="C12" s="231" t="s">
         <v>437</v>
       </c>
@@ -11008,7 +10354,7 @@
     </row>
     <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="208"/>
-      <c r="B13" s="240"/>
+      <c r="B13" s="252"/>
       <c r="C13" s="232"/>
       <c r="D13" s="106" t="s">
         <v>451</v>
@@ -11043,8 +10389,8 @@
     </row>
     <row r="14" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="208"/>
-      <c r="B14" s="240"/>
-      <c r="C14" s="243" t="s">
+      <c r="B14" s="252"/>
+      <c r="C14" s="255" t="s">
         <v>452</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -11080,8 +10426,8 @@
     </row>
     <row r="15" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="208"/>
-      <c r="B15" s="240"/>
-      <c r="C15" s="244"/>
+      <c r="B15" s="252"/>
+      <c r="C15" s="256"/>
       <c r="D15" s="2" t="s">
         <v>453</v>
       </c>
@@ -11115,7 +10461,7 @@
     </row>
     <row r="16" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="208"/>
-      <c r="B16" s="240"/>
+      <c r="B16" s="252"/>
       <c r="C16" s="231" t="s">
         <v>201</v>
       </c>
@@ -11152,7 +10498,7 @@
     </row>
     <row r="17" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="208"/>
-      <c r="B17" s="240"/>
+      <c r="B17" s="252"/>
       <c r="C17" s="232"/>
       <c r="D17" s="106" t="s">
         <v>454</v>
@@ -11187,7 +10533,7 @@
     </row>
     <row r="18" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="208"/>
-      <c r="B18" s="240"/>
+      <c r="B18" s="252"/>
       <c r="C18" s="231" t="s">
         <v>202</v>
       </c>
@@ -11224,7 +10570,7 @@
     </row>
     <row r="19" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="208"/>
-      <c r="B19" s="240"/>
+      <c r="B19" s="252"/>
       <c r="C19" s="232"/>
       <c r="D19" s="106" t="s">
         <v>455</v>
@@ -11259,7 +10605,7 @@
     </row>
     <row r="20" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="208"/>
-      <c r="B20" s="240"/>
+      <c r="B20" s="252"/>
       <c r="C20" s="231" t="s">
         <v>203</v>
       </c>
@@ -11296,7 +10642,7 @@
     </row>
     <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="208"/>
-      <c r="B21" s="240"/>
+      <c r="B21" s="252"/>
       <c r="C21" s="232"/>
       <c r="D21" s="106" t="s">
         <v>456</v>
@@ -11331,7 +10677,7 @@
     </row>
     <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="208"/>
-      <c r="B22" s="240"/>
+      <c r="B22" s="252"/>
       <c r="C22" s="231" t="s">
         <v>204</v>
       </c>
@@ -11368,7 +10714,7 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="208"/>
-      <c r="B23" s="240"/>
+      <c r="B23" s="252"/>
       <c r="C23" s="232"/>
       <c r="D23" s="106" t="s">
         <v>457</v>
@@ -11403,7 +10749,7 @@
     </row>
     <row r="24" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="208"/>
-      <c r="B24" s="240"/>
+      <c r="B24" s="252"/>
       <c r="C24" s="231" t="s">
         <v>123</v>
       </c>
@@ -11440,7 +10786,7 @@
     </row>
     <row r="25" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="208"/>
-      <c r="B25" s="240"/>
+      <c r="B25" s="252"/>
       <c r="C25" s="232"/>
       <c r="D25" s="106" t="s">
         <v>458</v>
@@ -11475,7 +10821,7 @@
     </row>
     <row r="26" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="208"/>
-      <c r="B26" s="240"/>
+      <c r="B26" s="252"/>
       <c r="C26" s="27" t="s">
         <v>77</v>
       </c>
@@ -11512,7 +10858,7 @@
     </row>
     <row r="27" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="208"/>
-      <c r="B27" s="240"/>
+      <c r="B27" s="252"/>
       <c r="C27" s="27" t="s">
         <v>80</v>
       </c>
@@ -11549,7 +10895,7 @@
     </row>
     <row r="28" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="208"/>
-      <c r="B28" s="240"/>
+      <c r="B28" s="252"/>
       <c r="C28" s="210" t="s">
         <v>205</v>
       </c>
@@ -11582,7 +10928,7 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="208"/>
-      <c r="B29" s="245"/>
+      <c r="B29" s="236"/>
       <c r="C29" s="2" t="s">
         <v>206</v>
       </c>
@@ -11619,7 +10965,7 @@
     </row>
     <row r="30" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="208"/>
-      <c r="B30" s="245"/>
+      <c r="B30" s="236"/>
       <c r="C30" s="4" t="s">
         <v>143</v>
       </c>
@@ -11656,7 +11002,7 @@
     </row>
     <row r="31" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="208"/>
-      <c r="B31" s="245"/>
+      <c r="B31" s="236"/>
       <c r="C31" s="2" t="s">
         <v>144</v>
       </c>
@@ -11693,7 +11039,7 @@
     </row>
     <row r="32" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="208"/>
-      <c r="B32" s="245"/>
+      <c r="B32" s="236"/>
       <c r="C32" s="2" t="s">
         <v>147</v>
       </c>
@@ -11730,7 +11076,7 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="208"/>
-      <c r="B33" s="245"/>
+      <c r="B33" s="236"/>
       <c r="C33" s="27" t="s">
         <v>145</v>
       </c>
@@ -11767,8 +11113,8 @@
     </row>
     <row r="34" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="208"/>
-      <c r="B34" s="245"/>
-      <c r="C34" s="246" t="s">
+      <c r="B34" s="236"/>
+      <c r="C34" s="237" t="s">
         <v>208</v>
       </c>
       <c r="D34" s="106" t="s">
@@ -11804,8 +11150,8 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="208"/>
-      <c r="B35" s="245"/>
-      <c r="C35" s="246"/>
+      <c r="B35" s="236"/>
+      <c r="C35" s="237"/>
       <c r="D35" s="106" t="s">
         <v>466</v>
       </c>
@@ -11839,8 +11185,8 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="208"/>
-      <c r="B36" s="245"/>
-      <c r="C36" s="246" t="s">
+      <c r="B36" s="236"/>
+      <c r="C36" s="237" t="s">
         <v>209</v>
       </c>
       <c r="D36" s="106" t="s">
@@ -11876,8 +11222,8 @@
     </row>
     <row r="37" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="208"/>
-      <c r="B37" s="245"/>
-      <c r="C37" s="246"/>
+      <c r="B37" s="236"/>
+      <c r="C37" s="237"/>
       <c r="D37" s="106" t="s">
         <v>467</v>
       </c>
@@ -11911,7 +11257,7 @@
     </row>
     <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="208"/>
-      <c r="B38" s="245"/>
+      <c r="B38" s="236"/>
       <c r="C38" s="209" t="s">
         <v>468</v>
       </c>
@@ -11944,7 +11290,7 @@
     </row>
     <row r="39" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="208"/>
-      <c r="B39" s="239" t="s">
+      <c r="B39" s="251" t="s">
         <v>207</v>
       </c>
       <c r="C39" s="230" t="s">
@@ -11983,7 +11329,7 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="208"/>
-      <c r="B40" s="240"/>
+      <c r="B40" s="252"/>
       <c r="C40" s="230"/>
       <c r="D40" s="106" t="s">
         <v>469</v>
@@ -12018,7 +11364,7 @@
     </row>
     <row r="41" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="208"/>
-      <c r="B41" s="240"/>
+      <c r="B41" s="252"/>
       <c r="C41" s="230" t="s">
         <v>127</v>
       </c>
@@ -12055,7 +11401,7 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="208"/>
-      <c r="B42" s="240"/>
+      <c r="B42" s="252"/>
       <c r="C42" s="230"/>
       <c r="D42" s="106" t="s">
         <v>470</v>
@@ -12090,7 +11436,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="208"/>
-      <c r="B43" s="240"/>
+      <c r="B43" s="252"/>
       <c r="C43" s="230" t="s">
         <v>149</v>
       </c>
@@ -12127,7 +11473,7 @@
     </row>
     <row r="44" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="208"/>
-      <c r="B44" s="240"/>
+      <c r="B44" s="252"/>
       <c r="C44" s="230"/>
       <c r="D44" s="106" t="s">
         <v>471</v>
@@ -12162,7 +11508,7 @@
     </row>
     <row r="45" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="208"/>
-      <c r="B45" s="240"/>
+      <c r="B45" s="252"/>
       <c r="C45" s="230" t="s">
         <v>151</v>
       </c>
@@ -12199,7 +11545,7 @@
     </row>
     <row r="46" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="208"/>
-      <c r="B46" s="240"/>
+      <c r="B46" s="252"/>
       <c r="C46" s="230"/>
       <c r="D46" s="106" t="s">
         <v>472</v>
@@ -12234,7 +11580,7 @@
     </row>
     <row r="47" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="208"/>
-      <c r="B47" s="240"/>
+      <c r="B47" s="252"/>
       <c r="C47" s="152" t="s">
         <v>157</v>
       </c>
@@ -12271,7 +11617,7 @@
     </row>
     <row r="48" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="208"/>
-      <c r="B48" s="240"/>
+      <c r="B48" s="252"/>
       <c r="C48" s="230" t="s">
         <v>161</v>
       </c>
@@ -12308,7 +11654,7 @@
     </row>
     <row r="49" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="208"/>
-      <c r="B49" s="240"/>
+      <c r="B49" s="252"/>
       <c r="C49" s="230"/>
       <c r="D49" s="106" t="s">
         <v>474</v>
@@ -12343,7 +11689,7 @@
     </row>
     <row r="50" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="208"/>
-      <c r="B50" s="240"/>
+      <c r="B50" s="252"/>
       <c r="C50" s="230" t="s">
         <v>163</v>
       </c>
@@ -12380,7 +11726,7 @@
     </row>
     <row r="51" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="208"/>
-      <c r="B51" s="240"/>
+      <c r="B51" s="252"/>
       <c r="C51" s="230"/>
       <c r="D51" s="106" t="s">
         <v>475</v>
@@ -12415,7 +11761,7 @@
     </row>
     <row r="52" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="208"/>
-      <c r="B52" s="240"/>
+      <c r="B52" s="252"/>
       <c r="C52" s="13" t="s">
         <v>139</v>
       </c>
@@ -12454,7 +11800,7 @@
     </row>
     <row r="53" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="208"/>
-      <c r="B53" s="240"/>
+      <c r="B53" s="252"/>
       <c r="C53" s="230" t="s">
         <v>117</v>
       </c>
@@ -12491,7 +11837,7 @@
     </row>
     <row r="54" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="208"/>
-      <c r="B54" s="240"/>
+      <c r="B54" s="252"/>
       <c r="C54" s="230"/>
       <c r="D54" s="106" t="s">
         <v>476</v>
@@ -12526,7 +11872,7 @@
     </row>
     <row r="55" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="208"/>
-      <c r="B55" s="240"/>
+      <c r="B55" s="252"/>
       <c r="C55" s="152" t="s">
         <v>61</v>
       </c>
@@ -12563,7 +11909,7 @@
     </row>
     <row r="56" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="208"/>
-      <c r="B56" s="240"/>
+      <c r="B56" s="252"/>
       <c r="C56" s="230" t="s">
         <v>113</v>
       </c>
@@ -12600,7 +11946,7 @@
     </row>
     <row r="57" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="208"/>
-      <c r="B57" s="240"/>
+      <c r="B57" s="252"/>
       <c r="C57" s="230"/>
       <c r="D57" s="106" t="s">
         <v>478</v>
@@ -12635,7 +11981,7 @@
     </row>
     <row r="58" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="208"/>
-      <c r="B58" s="240"/>
+      <c r="B58" s="252"/>
       <c r="C58" s="152" t="s">
         <v>69</v>
       </c>
@@ -12672,7 +12018,7 @@
     </row>
     <row r="59" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="208"/>
-      <c r="B59" s="240"/>
+      <c r="B59" s="252"/>
       <c r="C59" s="152" t="s">
         <v>71</v>
       </c>
@@ -12709,7 +12055,7 @@
     </row>
     <row r="60" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="208"/>
-      <c r="B60" s="240"/>
+      <c r="B60" s="252"/>
       <c r="C60" s="164" t="s">
         <v>481</v>
       </c>
@@ -12746,7 +12092,7 @@
     </row>
     <row r="61" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="208"/>
-      <c r="B61" s="240"/>
+      <c r="B61" s="252"/>
       <c r="C61" s="152" t="s">
         <v>98</v>
       </c>
@@ -12783,7 +12129,7 @@
     </row>
     <row r="62" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="208"/>
-      <c r="B62" s="240"/>
+      <c r="B62" s="252"/>
       <c r="C62" s="152" t="s">
         <v>436</v>
       </c>
@@ -12818,7 +12164,7 @@
     </row>
     <row r="63" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="208"/>
-      <c r="B63" s="240"/>
+      <c r="B63" s="252"/>
       <c r="C63" s="222" t="s">
         <v>484</v>
       </c>
@@ -12851,7 +12197,7 @@
     </row>
     <row r="64" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="208"/>
-      <c r="B64" s="240"/>
+      <c r="B64" s="252"/>
       <c r="C64" s="156" t="s">
         <v>485</v>
       </c>
@@ -14427,41 +13773,40 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B39:B65"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C56:C57"/>
     <mergeCell ref="C63:E63"/>
     <mergeCell ref="C65:E65"/>
     <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C43:C44"/>
     <mergeCell ref="A66:E66"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="R1:W1"/>
-    <mergeCell ref="X1:AC1"/>
     <mergeCell ref="A3:A65"/>
     <mergeCell ref="B3:B28"/>
-    <mergeCell ref="C4:C5"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B39:B65"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="X1:AC1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:Q1"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="B29:B38"/>
     <mergeCell ref="C34:C35"/>
@@ -14481,6 +13826,7 @@
     <mergeCell ref="B83:B89"/>
     <mergeCell ref="C85:C87"/>
     <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C83:C84"/>
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A91:A102"/>
     <mergeCell ref="B91:B95"/>
@@ -16814,9 +16160,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AC107"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16831,60 +16177,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="238" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="248" t="s">
+      <c r="B1" s="239" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="237" t="s">
+      <c r="C1" s="241" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="250" t="s">
+      <c r="D1" s="244" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="252" t="s">
+      <c r="E1" s="246" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="254" t="s">
+      <c r="F1" s="248" t="s">
         <v>432</v>
       </c>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="236" t="s">
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="242" t="s">
         <v>433</v>
       </c>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="256"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="236" t="s">
+      <c r="M1" s="241"/>
+      <c r="N1" s="241"/>
+      <c r="O1" s="241"/>
+      <c r="P1" s="250"/>
+      <c r="Q1" s="243"/>
+      <c r="R1" s="242" t="s">
         <v>434</v>
       </c>
-      <c r="S1" s="237"/>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="236" t="s">
+      <c r="S1" s="241"/>
+      <c r="T1" s="241"/>
+      <c r="U1" s="241"/>
+      <c r="V1" s="241"/>
+      <c r="W1" s="243"/>
+      <c r="X1" s="242" t="s">
         <v>435</v>
       </c>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="237"/>
-      <c r="AA1" s="237"/>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="237"/>
+      <c r="Y1" s="241"/>
+      <c r="Z1" s="241"/>
+      <c r="AA1" s="241"/>
+      <c r="AB1" s="241"/>
+      <c r="AC1" s="241"/>
     </row>
     <row r="2" spans="1:29" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="247"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="253"/>
+      <c r="A2" s="238"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="161" t="s">
         <v>172</v>
       </c>
@@ -16962,7 +16308,7 @@
       <c r="A3" s="207" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="239" t="s">
+      <c r="B3" s="251" t="s">
         <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -16974,34 +16320,50 @@
       <c r="E3" s="88">
         <v>1</v>
       </c>
-      <c r="F3" s="130"/>
+      <c r="F3" s="130" t="s">
+        <v>517</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="80"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="133"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>519</v>
+      </c>
       <c r="M3" s="26"/>
       <c r="N3" s="81"/>
-      <c r="O3" s="88"/>
+      <c r="O3" s="88" t="s">
+        <v>520</v>
+      </c>
       <c r="P3" s="88"/>
       <c r="Q3" s="133"/>
-      <c r="R3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="S3" s="26"/>
       <c r="T3" s="80"/>
-      <c r="U3" s="26"/>
+      <c r="U3" s="26" t="s">
+        <v>522</v>
+      </c>
       <c r="V3" s="98"/>
       <c r="W3" s="133"/>
-      <c r="X3" s="1"/>
+      <c r="X3" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="Y3" s="158"/>
       <c r="Z3" s="80"/>
-      <c r="AA3" s="26"/>
+      <c r="AA3" s="26" t="s">
+        <v>524</v>
+      </c>
       <c r="AB3" s="98"/>
       <c r="AC3" s="80"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="208"/>
-      <c r="B4" s="240"/>
+      <c r="B4" s="252"/>
       <c r="C4" s="231" t="s">
         <v>197</v>
       </c>
@@ -17038,7 +16400,7 @@
     </row>
     <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="208"/>
-      <c r="B5" s="240"/>
+      <c r="B5" s="252"/>
       <c r="C5" s="232"/>
       <c r="D5" s="106" t="s">
         <v>447</v>
@@ -17073,7 +16435,7 @@
     </row>
     <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="208"/>
-      <c r="B6" s="240"/>
+      <c r="B6" s="252"/>
       <c r="C6" s="231" t="s">
         <v>198</v>
       </c>
@@ -17110,7 +16472,7 @@
     </row>
     <row r="7" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="208"/>
-      <c r="B7" s="240"/>
+      <c r="B7" s="252"/>
       <c r="C7" s="232"/>
       <c r="D7" s="106" t="s">
         <v>448</v>
@@ -17145,7 +16507,7 @@
     </row>
     <row r="8" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="208"/>
-      <c r="B8" s="240"/>
+      <c r="B8" s="252"/>
       <c r="C8" s="231" t="s">
         <v>199</v>
       </c>
@@ -17182,7 +16544,7 @@
     </row>
     <row r="9" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="208"/>
-      <c r="B9" s="240"/>
+      <c r="B9" s="252"/>
       <c r="C9" s="232"/>
       <c r="D9" s="106" t="s">
         <v>449</v>
@@ -17217,8 +16579,8 @@
     </row>
     <row r="10" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="208"/>
-      <c r="B10" s="240"/>
-      <c r="C10" s="241" t="s">
+      <c r="B10" s="252"/>
+      <c r="C10" s="253" t="s">
         <v>200</v>
       </c>
       <c r="D10" s="106" t="s">
@@ -17254,8 +16616,8 @@
     </row>
     <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="208"/>
-      <c r="B11" s="240"/>
-      <c r="C11" s="242"/>
+      <c r="B11" s="252"/>
+      <c r="C11" s="254"/>
       <c r="D11" s="106" t="s">
         <v>450</v>
       </c>
@@ -17289,7 +16651,7 @@
     </row>
     <row r="12" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="208"/>
-      <c r="B12" s="240"/>
+      <c r="B12" s="252"/>
       <c r="C12" s="231" t="s">
         <v>437</v>
       </c>
@@ -17326,7 +16688,7 @@
     </row>
     <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="208"/>
-      <c r="B13" s="240"/>
+      <c r="B13" s="252"/>
       <c r="C13" s="232"/>
       <c r="D13" s="106" t="s">
         <v>451</v>
@@ -17361,8 +16723,8 @@
     </row>
     <row r="14" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="208"/>
-      <c r="B14" s="240"/>
-      <c r="C14" s="243" t="s">
+      <c r="B14" s="252"/>
+      <c r="C14" s="255" t="s">
         <v>452</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -17398,8 +16760,8 @@
     </row>
     <row r="15" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="208"/>
-      <c r="B15" s="240"/>
-      <c r="C15" s="244"/>
+      <c r="B15" s="252"/>
+      <c r="C15" s="256"/>
       <c r="D15" s="2" t="s">
         <v>453</v>
       </c>
@@ -17433,7 +16795,7 @@
     </row>
     <row r="16" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="208"/>
-      <c r="B16" s="240"/>
+      <c r="B16" s="252"/>
       <c r="C16" s="231" t="s">
         <v>201</v>
       </c>
@@ -17470,7 +16832,7 @@
     </row>
     <row r="17" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="208"/>
-      <c r="B17" s="240"/>
+      <c r="B17" s="252"/>
       <c r="C17" s="232"/>
       <c r="D17" s="106" t="s">
         <v>454</v>
@@ -17505,7 +16867,7 @@
     </row>
     <row r="18" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="208"/>
-      <c r="B18" s="240"/>
+      <c r="B18" s="252"/>
       <c r="C18" s="231" t="s">
         <v>202</v>
       </c>
@@ -17542,7 +16904,7 @@
     </row>
     <row r="19" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="208"/>
-      <c r="B19" s="240"/>
+      <c r="B19" s="252"/>
       <c r="C19" s="232"/>
       <c r="D19" s="106" t="s">
         <v>455</v>
@@ -17577,7 +16939,7 @@
     </row>
     <row r="20" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="208"/>
-      <c r="B20" s="240"/>
+      <c r="B20" s="252"/>
       <c r="C20" s="231" t="s">
         <v>203</v>
       </c>
@@ -17614,7 +16976,7 @@
     </row>
     <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="208"/>
-      <c r="B21" s="240"/>
+      <c r="B21" s="252"/>
       <c r="C21" s="232"/>
       <c r="D21" s="106" t="s">
         <v>456</v>
@@ -17649,7 +17011,7 @@
     </row>
     <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="208"/>
-      <c r="B22" s="240"/>
+      <c r="B22" s="252"/>
       <c r="C22" s="231" t="s">
         <v>204</v>
       </c>
@@ -17686,7 +17048,7 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="208"/>
-      <c r="B23" s="240"/>
+      <c r="B23" s="252"/>
       <c r="C23" s="232"/>
       <c r="D23" s="106" t="s">
         <v>457</v>
@@ -17721,7 +17083,7 @@
     </row>
     <row r="24" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="208"/>
-      <c r="B24" s="240"/>
+      <c r="B24" s="252"/>
       <c r="C24" s="231" t="s">
         <v>123</v>
       </c>
@@ -17758,7 +17120,7 @@
     </row>
     <row r="25" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="208"/>
-      <c r="B25" s="240"/>
+      <c r="B25" s="252"/>
       <c r="C25" s="232"/>
       <c r="D25" s="106" t="s">
         <v>458</v>
@@ -17793,7 +17155,7 @@
     </row>
     <row r="26" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="208"/>
-      <c r="B26" s="240"/>
+      <c r="B26" s="252"/>
       <c r="C26" s="27" t="s">
         <v>77</v>
       </c>
@@ -17830,7 +17192,7 @@
     </row>
     <row r="27" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="208"/>
-      <c r="B27" s="240"/>
+      <c r="B27" s="252"/>
       <c r="C27" s="27" t="s">
         <v>80</v>
       </c>
@@ -17867,7 +17229,7 @@
     </row>
     <row r="28" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="208"/>
-      <c r="B28" s="240"/>
+      <c r="B28" s="252"/>
       <c r="C28" s="210" t="s">
         <v>205</v>
       </c>
@@ -17900,7 +17262,7 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="208"/>
-      <c r="B29" s="245"/>
+      <c r="B29" s="236"/>
       <c r="C29" s="2" t="s">
         <v>206</v>
       </c>
@@ -17937,7 +17299,7 @@
     </row>
     <row r="30" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="208"/>
-      <c r="B30" s="245"/>
+      <c r="B30" s="236"/>
       <c r="C30" s="4" t="s">
         <v>143</v>
       </c>
@@ -17974,7 +17336,7 @@
     </row>
     <row r="31" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="208"/>
-      <c r="B31" s="245"/>
+      <c r="B31" s="236"/>
       <c r="C31" s="2" t="s">
         <v>144</v>
       </c>
@@ -18011,7 +17373,7 @@
     </row>
     <row r="32" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="208"/>
-      <c r="B32" s="245"/>
+      <c r="B32" s="236"/>
       <c r="C32" s="2" t="s">
         <v>147</v>
       </c>
@@ -18048,7 +17410,7 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="208"/>
-      <c r="B33" s="245"/>
+      <c r="B33" s="236"/>
       <c r="C33" s="27" t="s">
         <v>145</v>
       </c>
@@ -18085,8 +17447,8 @@
     </row>
     <row r="34" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="208"/>
-      <c r="B34" s="245"/>
-      <c r="C34" s="246" t="s">
+      <c r="B34" s="236"/>
+      <c r="C34" s="237" t="s">
         <v>208</v>
       </c>
       <c r="D34" s="106" t="s">
@@ -18122,8 +17484,8 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="208"/>
-      <c r="B35" s="245"/>
-      <c r="C35" s="246"/>
+      <c r="B35" s="236"/>
+      <c r="C35" s="237"/>
       <c r="D35" s="106" t="s">
         <v>466</v>
       </c>
@@ -18157,8 +17519,8 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="208"/>
-      <c r="B36" s="245"/>
-      <c r="C36" s="246" t="s">
+      <c r="B36" s="236"/>
+      <c r="C36" s="237" t="s">
         <v>209</v>
       </c>
       <c r="D36" s="106" t="s">
@@ -18194,8 +17556,8 @@
     </row>
     <row r="37" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="208"/>
-      <c r="B37" s="245"/>
-      <c r="C37" s="246"/>
+      <c r="B37" s="236"/>
+      <c r="C37" s="237"/>
       <c r="D37" s="106" t="s">
         <v>467</v>
       </c>
@@ -18229,7 +17591,7 @@
     </row>
     <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="208"/>
-      <c r="B38" s="245"/>
+      <c r="B38" s="236"/>
       <c r="C38" s="209" t="s">
         <v>468</v>
       </c>
@@ -18262,7 +17624,7 @@
     </row>
     <row r="39" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="208"/>
-      <c r="B39" s="239" t="s">
+      <c r="B39" s="251" t="s">
         <v>207</v>
       </c>
       <c r="C39" s="230" t="s">
@@ -18301,7 +17663,7 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="208"/>
-      <c r="B40" s="240"/>
+      <c r="B40" s="252"/>
       <c r="C40" s="230"/>
       <c r="D40" s="106" t="s">
         <v>469</v>
@@ -18336,7 +17698,7 @@
     </row>
     <row r="41" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="208"/>
-      <c r="B41" s="240"/>
+      <c r="B41" s="252"/>
       <c r="C41" s="230" t="s">
         <v>127</v>
       </c>
@@ -18373,7 +17735,7 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="208"/>
-      <c r="B42" s="240"/>
+      <c r="B42" s="252"/>
       <c r="C42" s="230"/>
       <c r="D42" s="106" t="s">
         <v>470</v>
@@ -18408,7 +17770,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="208"/>
-      <c r="B43" s="240"/>
+      <c r="B43" s="252"/>
       <c r="C43" s="230" t="s">
         <v>149</v>
       </c>
@@ -18445,7 +17807,7 @@
     </row>
     <row r="44" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="208"/>
-      <c r="B44" s="240"/>
+      <c r="B44" s="252"/>
       <c r="C44" s="230"/>
       <c r="D44" s="106" t="s">
         <v>471</v>
@@ -18480,7 +17842,7 @@
     </row>
     <row r="45" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="208"/>
-      <c r="B45" s="240"/>
+      <c r="B45" s="252"/>
       <c r="C45" s="230" t="s">
         <v>151</v>
       </c>
@@ -18517,7 +17879,7 @@
     </row>
     <row r="46" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="208"/>
-      <c r="B46" s="240"/>
+      <c r="B46" s="252"/>
       <c r="C46" s="230"/>
       <c r="D46" s="106" t="s">
         <v>472</v>
@@ -18552,7 +17914,7 @@
     </row>
     <row r="47" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="208"/>
-      <c r="B47" s="240"/>
+      <c r="B47" s="252"/>
       <c r="C47" s="152" t="s">
         <v>157</v>
       </c>
@@ -18589,7 +17951,7 @@
     </row>
     <row r="48" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="208"/>
-      <c r="B48" s="240"/>
+      <c r="B48" s="252"/>
       <c r="C48" s="230" t="s">
         <v>161</v>
       </c>
@@ -18626,7 +17988,7 @@
     </row>
     <row r="49" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="208"/>
-      <c r="B49" s="240"/>
+      <c r="B49" s="252"/>
       <c r="C49" s="230"/>
       <c r="D49" s="106" t="s">
         <v>474</v>
@@ -18661,7 +18023,7 @@
     </row>
     <row r="50" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="208"/>
-      <c r="B50" s="240"/>
+      <c r="B50" s="252"/>
       <c r="C50" s="230" t="s">
         <v>163</v>
       </c>
@@ -18698,7 +18060,7 @@
     </row>
     <row r="51" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="208"/>
-      <c r="B51" s="240"/>
+      <c r="B51" s="252"/>
       <c r="C51" s="230"/>
       <c r="D51" s="106" t="s">
         <v>475</v>
@@ -18733,7 +18095,7 @@
     </row>
     <row r="52" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="208"/>
-      <c r="B52" s="240"/>
+      <c r="B52" s="252"/>
       <c r="C52" s="13" t="s">
         <v>139</v>
       </c>
@@ -18770,7 +18132,7 @@
     </row>
     <row r="53" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="208"/>
-      <c r="B53" s="240"/>
+      <c r="B53" s="252"/>
       <c r="C53" s="230" t="s">
         <v>117</v>
       </c>
@@ -18807,7 +18169,7 @@
     </row>
     <row r="54" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="208"/>
-      <c r="B54" s="240"/>
+      <c r="B54" s="252"/>
       <c r="C54" s="230"/>
       <c r="D54" s="106" t="s">
         <v>476</v>
@@ -18842,7 +18204,7 @@
     </row>
     <row r="55" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="208"/>
-      <c r="B55" s="240"/>
+      <c r="B55" s="252"/>
       <c r="C55" s="152" t="s">
         <v>61</v>
       </c>
@@ -18879,7 +18241,7 @@
     </row>
     <row r="56" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="208"/>
-      <c r="B56" s="240"/>
+      <c r="B56" s="252"/>
       <c r="C56" s="230" t="s">
         <v>113</v>
       </c>
@@ -18916,7 +18278,7 @@
     </row>
     <row r="57" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="208"/>
-      <c r="B57" s="240"/>
+      <c r="B57" s="252"/>
       <c r="C57" s="230"/>
       <c r="D57" s="106" t="s">
         <v>478</v>
@@ -18951,7 +18313,7 @@
     </row>
     <row r="58" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="208"/>
-      <c r="B58" s="240"/>
+      <c r="B58" s="252"/>
       <c r="C58" s="152" t="s">
         <v>69</v>
       </c>
@@ -18988,7 +18350,7 @@
     </row>
     <row r="59" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="208"/>
-      <c r="B59" s="240"/>
+      <c r="B59" s="252"/>
       <c r="C59" s="152" t="s">
         <v>71</v>
       </c>
@@ -19025,7 +18387,7 @@
     </row>
     <row r="60" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="208"/>
-      <c r="B60" s="240"/>
+      <c r="B60" s="252"/>
       <c r="C60" s="164" t="s">
         <v>481</v>
       </c>
@@ -19062,7 +18424,7 @@
     </row>
     <row r="61" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="208"/>
-      <c r="B61" s="240"/>
+      <c r="B61" s="252"/>
       <c r="C61" s="152" t="s">
         <v>98</v>
       </c>
@@ -19099,7 +18461,7 @@
     </row>
     <row r="62" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="208"/>
-      <c r="B62" s="240"/>
+      <c r="B62" s="252"/>
       <c r="C62" s="152" t="s">
         <v>436</v>
       </c>
@@ -19134,7 +18496,7 @@
     </row>
     <row r="63" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="208"/>
-      <c r="B63" s="240"/>
+      <c r="B63" s="252"/>
       <c r="C63" s="222" t="s">
         <v>484</v>
       </c>
@@ -19167,7 +18529,7 @@
     </row>
     <row r="64" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="208"/>
-      <c r="B64" s="240"/>
+      <c r="B64" s="252"/>
       <c r="C64" s="156" t="s">
         <v>485</v>
       </c>
@@ -20750,11 +20112,22 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B39:B65"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C71:C72"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -20776,17 +20149,6 @@
     <mergeCell ref="B29:B38"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B39:B65"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C71:C72"/>
     <mergeCell ref="C74:E74"/>
     <mergeCell ref="B75:B77"/>
     <mergeCell ref="C75:C76"/>
@@ -23172,60 +22534,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="238" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="248" t="s">
+      <c r="B1" s="239" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="237" t="s">
+      <c r="C1" s="241" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="250" t="s">
+      <c r="D1" s="244" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="252" t="s">
+      <c r="E1" s="246" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="254" t="s">
+      <c r="F1" s="248" t="s">
         <v>432</v>
       </c>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="236" t="s">
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="242" t="s">
         <v>433</v>
       </c>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="256"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="236" t="s">
+      <c r="M1" s="241"/>
+      <c r="N1" s="241"/>
+      <c r="O1" s="241"/>
+      <c r="P1" s="250"/>
+      <c r="Q1" s="243"/>
+      <c r="R1" s="242" t="s">
         <v>434</v>
       </c>
-      <c r="S1" s="237"/>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="236" t="s">
+      <c r="S1" s="241"/>
+      <c r="T1" s="241"/>
+      <c r="U1" s="241"/>
+      <c r="V1" s="241"/>
+      <c r="W1" s="243"/>
+      <c r="X1" s="242" t="s">
         <v>435</v>
       </c>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="237"/>
-      <c r="AA1" s="237"/>
-      <c r="AB1" s="237"/>
-      <c r="AC1" s="237"/>
+      <c r="Y1" s="241"/>
+      <c r="Z1" s="241"/>
+      <c r="AA1" s="241"/>
+      <c r="AB1" s="241"/>
+      <c r="AC1" s="241"/>
     </row>
     <row r="2" spans="1:29" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="247"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="253"/>
+      <c r="A2" s="238"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="161" t="s">
         <v>172</v>
       </c>
@@ -23303,7 +22665,7 @@
       <c r="A3" s="207" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="239" t="s">
+      <c r="B3" s="251" t="s">
         <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -23342,7 +22704,7 @@
     </row>
     <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="208"/>
-      <c r="B4" s="240"/>
+      <c r="B4" s="252"/>
       <c r="C4" s="231" t="s">
         <v>197</v>
       </c>
@@ -23379,7 +22741,7 @@
     </row>
     <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="208"/>
-      <c r="B5" s="240"/>
+      <c r="B5" s="252"/>
       <c r="C5" s="232"/>
       <c r="D5" s="106" t="s">
         <v>447</v>
@@ -23414,7 +22776,7 @@
     </row>
     <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="208"/>
-      <c r="B6" s="240"/>
+      <c r="B6" s="252"/>
       <c r="C6" s="231" t="s">
         <v>198</v>
       </c>
@@ -23451,7 +22813,7 @@
     </row>
     <row r="7" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="208"/>
-      <c r="B7" s="240"/>
+      <c r="B7" s="252"/>
       <c r="C7" s="232"/>
       <c r="D7" s="106" t="s">
         <v>448</v>
@@ -23486,7 +22848,7 @@
     </row>
     <row r="8" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="208"/>
-      <c r="B8" s="240"/>
+      <c r="B8" s="252"/>
       <c r="C8" s="231" t="s">
         <v>199</v>
       </c>
@@ -23523,7 +22885,7 @@
     </row>
     <row r="9" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="208"/>
-      <c r="B9" s="240"/>
+      <c r="B9" s="252"/>
       <c r="C9" s="232"/>
       <c r="D9" s="106" t="s">
         <v>449</v>
@@ -23558,8 +22920,8 @@
     </row>
     <row r="10" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="208"/>
-      <c r="B10" s="240"/>
-      <c r="C10" s="241" t="s">
+      <c r="B10" s="252"/>
+      <c r="C10" s="253" t="s">
         <v>200</v>
       </c>
       <c r="D10" s="106" t="s">
@@ -23595,8 +22957,8 @@
     </row>
     <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="208"/>
-      <c r="B11" s="240"/>
-      <c r="C11" s="242"/>
+      <c r="B11" s="252"/>
+      <c r="C11" s="254"/>
       <c r="D11" s="106" t="s">
         <v>450</v>
       </c>
@@ -23630,7 +22992,7 @@
     </row>
     <row r="12" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="208"/>
-      <c r="B12" s="240"/>
+      <c r="B12" s="252"/>
       <c r="C12" s="231" t="s">
         <v>437</v>
       </c>
@@ -23667,7 +23029,7 @@
     </row>
     <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="208"/>
-      <c r="B13" s="240"/>
+      <c r="B13" s="252"/>
       <c r="C13" s="232"/>
       <c r="D13" s="106" t="s">
         <v>451</v>
@@ -23702,8 +23064,8 @@
     </row>
     <row r="14" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="208"/>
-      <c r="B14" s="240"/>
-      <c r="C14" s="243" t="s">
+      <c r="B14" s="252"/>
+      <c r="C14" s="255" t="s">
         <v>452</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -23739,8 +23101,8 @@
     </row>
     <row r="15" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="208"/>
-      <c r="B15" s="240"/>
-      <c r="C15" s="244"/>
+      <c r="B15" s="252"/>
+      <c r="C15" s="256"/>
       <c r="D15" s="2" t="s">
         <v>453</v>
       </c>
@@ -23774,7 +23136,7 @@
     </row>
     <row r="16" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="208"/>
-      <c r="B16" s="240"/>
+      <c r="B16" s="252"/>
       <c r="C16" s="231" t="s">
         <v>201</v>
       </c>
@@ -23811,7 +23173,7 @@
     </row>
     <row r="17" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="208"/>
-      <c r="B17" s="240"/>
+      <c r="B17" s="252"/>
       <c r="C17" s="232"/>
       <c r="D17" s="106" t="s">
         <v>454</v>
@@ -23846,7 +23208,7 @@
     </row>
     <row r="18" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="208"/>
-      <c r="B18" s="240"/>
+      <c r="B18" s="252"/>
       <c r="C18" s="231" t="s">
         <v>202</v>
       </c>
@@ -23883,7 +23245,7 @@
     </row>
     <row r="19" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="208"/>
-      <c r="B19" s="240"/>
+      <c r="B19" s="252"/>
       <c r="C19" s="232"/>
       <c r="D19" s="106" t="s">
         <v>455</v>
@@ -23918,7 +23280,7 @@
     </row>
     <row r="20" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="208"/>
-      <c r="B20" s="240"/>
+      <c r="B20" s="252"/>
       <c r="C20" s="231" t="s">
         <v>203</v>
       </c>
@@ -23955,7 +23317,7 @@
     </row>
     <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="208"/>
-      <c r="B21" s="240"/>
+      <c r="B21" s="252"/>
       <c r="C21" s="232"/>
       <c r="D21" s="106" t="s">
         <v>456</v>
@@ -23990,7 +23352,7 @@
     </row>
     <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="208"/>
-      <c r="B22" s="240"/>
+      <c r="B22" s="252"/>
       <c r="C22" s="231" t="s">
         <v>204</v>
       </c>
@@ -24027,7 +23389,7 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="208"/>
-      <c r="B23" s="240"/>
+      <c r="B23" s="252"/>
       <c r="C23" s="232"/>
       <c r="D23" s="106" t="s">
         <v>457</v>
@@ -24062,7 +23424,7 @@
     </row>
     <row r="24" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="208"/>
-      <c r="B24" s="240"/>
+      <c r="B24" s="252"/>
       <c r="C24" s="231" t="s">
         <v>123</v>
       </c>
@@ -24099,7 +23461,7 @@
     </row>
     <row r="25" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="208"/>
-      <c r="B25" s="240"/>
+      <c r="B25" s="252"/>
       <c r="C25" s="232"/>
       <c r="D25" s="106" t="s">
         <v>458</v>
@@ -24134,7 +23496,7 @@
     </row>
     <row r="26" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="208"/>
-      <c r="B26" s="240"/>
+      <c r="B26" s="252"/>
       <c r="C26" s="27" t="s">
         <v>77</v>
       </c>
@@ -24171,7 +23533,7 @@
     </row>
     <row r="27" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="208"/>
-      <c r="B27" s="240"/>
+      <c r="B27" s="252"/>
       <c r="C27" s="27" t="s">
         <v>80</v>
       </c>
@@ -24208,7 +23570,7 @@
     </row>
     <row r="28" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="208"/>
-      <c r="B28" s="240"/>
+      <c r="B28" s="252"/>
       <c r="C28" s="210" t="s">
         <v>205</v>
       </c>
@@ -24241,7 +23603,7 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="208"/>
-      <c r="B29" s="245"/>
+      <c r="B29" s="236"/>
       <c r="C29" s="2" t="s">
         <v>206</v>
       </c>
@@ -24278,7 +23640,7 @@
     </row>
     <row r="30" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="208"/>
-      <c r="B30" s="245"/>
+      <c r="B30" s="236"/>
       <c r="C30" s="4" t="s">
         <v>143</v>
       </c>
@@ -24315,7 +23677,7 @@
     </row>
     <row r="31" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="208"/>
-      <c r="B31" s="245"/>
+      <c r="B31" s="236"/>
       <c r="C31" s="2" t="s">
         <v>144</v>
       </c>
@@ -24352,7 +23714,7 @@
     </row>
     <row r="32" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="208"/>
-      <c r="B32" s="245"/>
+      <c r="B32" s="236"/>
       <c r="C32" s="2" t="s">
         <v>147</v>
       </c>
@@ -24389,7 +23751,7 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="208"/>
-      <c r="B33" s="245"/>
+      <c r="B33" s="236"/>
       <c r="C33" s="27" t="s">
         <v>145</v>
       </c>
@@ -24426,8 +23788,8 @@
     </row>
     <row r="34" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="208"/>
-      <c r="B34" s="245"/>
-      <c r="C34" s="246" t="s">
+      <c r="B34" s="236"/>
+      <c r="C34" s="237" t="s">
         <v>208</v>
       </c>
       <c r="D34" s="106" t="s">
@@ -24463,8 +23825,8 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="208"/>
-      <c r="B35" s="245"/>
-      <c r="C35" s="246"/>
+      <c r="B35" s="236"/>
+      <c r="C35" s="237"/>
       <c r="D35" s="106" t="s">
         <v>466</v>
       </c>
@@ -24498,8 +23860,8 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="208"/>
-      <c r="B36" s="245"/>
-      <c r="C36" s="246" t="s">
+      <c r="B36" s="236"/>
+      <c r="C36" s="237" t="s">
         <v>209</v>
       </c>
       <c r="D36" s="106" t="s">
@@ -24535,8 +23897,8 @@
     </row>
     <row r="37" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="208"/>
-      <c r="B37" s="245"/>
-      <c r="C37" s="246"/>
+      <c r="B37" s="236"/>
+      <c r="C37" s="237"/>
       <c r="D37" s="106" t="s">
         <v>467</v>
       </c>
@@ -24570,7 +23932,7 @@
     </row>
     <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="208"/>
-      <c r="B38" s="245"/>
+      <c r="B38" s="236"/>
       <c r="C38" s="209" t="s">
         <v>468</v>
       </c>
@@ -24603,7 +23965,7 @@
     </row>
     <row r="39" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="208"/>
-      <c r="B39" s="239" t="s">
+      <c r="B39" s="251" t="s">
         <v>207</v>
       </c>
       <c r="C39" s="230" t="s">
@@ -24642,7 +24004,7 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="208"/>
-      <c r="B40" s="240"/>
+      <c r="B40" s="252"/>
       <c r="C40" s="230"/>
       <c r="D40" s="106" t="s">
         <v>469</v>
@@ -24677,7 +24039,7 @@
     </row>
     <row r="41" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="208"/>
-      <c r="B41" s="240"/>
+      <c r="B41" s="252"/>
       <c r="C41" s="230" t="s">
         <v>127</v>
       </c>
@@ -24714,7 +24076,7 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="208"/>
-      <c r="B42" s="240"/>
+      <c r="B42" s="252"/>
       <c r="C42" s="230"/>
       <c r="D42" s="106" t="s">
         <v>470</v>
@@ -24749,7 +24111,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="208"/>
-      <c r="B43" s="240"/>
+      <c r="B43" s="252"/>
       <c r="C43" s="230" t="s">
         <v>149</v>
       </c>
@@ -24786,7 +24148,7 @@
     </row>
     <row r="44" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="208"/>
-      <c r="B44" s="240"/>
+      <c r="B44" s="252"/>
       <c r="C44" s="230"/>
       <c r="D44" s="106" t="s">
         <v>471</v>
@@ -24821,7 +24183,7 @@
     </row>
     <row r="45" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="208"/>
-      <c r="B45" s="240"/>
+      <c r="B45" s="252"/>
       <c r="C45" s="230" t="s">
         <v>151</v>
       </c>
@@ -24858,7 +24220,7 @@
     </row>
     <row r="46" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="208"/>
-      <c r="B46" s="240"/>
+      <c r="B46" s="252"/>
       <c r="C46" s="230"/>
       <c r="D46" s="106" t="s">
         <v>472</v>
@@ -24893,7 +24255,7 @@
     </row>
     <row r="47" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="208"/>
-      <c r="B47" s="240"/>
+      <c r="B47" s="252"/>
       <c r="C47" s="152" t="s">
         <v>157</v>
       </c>
@@ -24930,7 +24292,7 @@
     </row>
     <row r="48" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="208"/>
-      <c r="B48" s="240"/>
+      <c r="B48" s="252"/>
       <c r="C48" s="230" t="s">
         <v>161</v>
       </c>
@@ -24967,7 +24329,7 @@
     </row>
     <row r="49" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="208"/>
-      <c r="B49" s="240"/>
+      <c r="B49" s="252"/>
       <c r="C49" s="230"/>
       <c r="D49" s="106" t="s">
         <v>474</v>
@@ -25002,7 +24364,7 @@
     </row>
     <row r="50" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="208"/>
-      <c r="B50" s="240"/>
+      <c r="B50" s="252"/>
       <c r="C50" s="230" t="s">
         <v>163</v>
       </c>
@@ -25039,7 +24401,7 @@
     </row>
     <row r="51" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="208"/>
-      <c r="B51" s="240"/>
+      <c r="B51" s="252"/>
       <c r="C51" s="230"/>
       <c r="D51" s="106" t="s">
         <v>475</v>
@@ -25074,7 +24436,7 @@
     </row>
     <row r="52" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="208"/>
-      <c r="B52" s="240"/>
+      <c r="B52" s="252"/>
       <c r="C52" s="13" t="s">
         <v>139</v>
       </c>
@@ -25111,7 +24473,7 @@
     </row>
     <row r="53" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="208"/>
-      <c r="B53" s="240"/>
+      <c r="B53" s="252"/>
       <c r="C53" s="230" t="s">
         <v>117</v>
       </c>
@@ -25148,7 +24510,7 @@
     </row>
     <row r="54" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="208"/>
-      <c r="B54" s="240"/>
+      <c r="B54" s="252"/>
       <c r="C54" s="230"/>
       <c r="D54" s="106" t="s">
         <v>476</v>
@@ -25183,7 +24545,7 @@
     </row>
     <row r="55" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="208"/>
-      <c r="B55" s="240"/>
+      <c r="B55" s="252"/>
       <c r="C55" s="152" t="s">
         <v>61</v>
       </c>
@@ -25220,7 +24582,7 @@
     </row>
     <row r="56" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="208"/>
-      <c r="B56" s="240"/>
+      <c r="B56" s="252"/>
       <c r="C56" s="230" t="s">
         <v>113</v>
       </c>
@@ -25257,7 +24619,7 @@
     </row>
     <row r="57" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="208"/>
-      <c r="B57" s="240"/>
+      <c r="B57" s="252"/>
       <c r="C57" s="230"/>
       <c r="D57" s="106" t="s">
         <v>478</v>
@@ -25292,7 +24654,7 @@
     </row>
     <row r="58" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="208"/>
-      <c r="B58" s="240"/>
+      <c r="B58" s="252"/>
       <c r="C58" s="152" t="s">
         <v>69</v>
       </c>
@@ -25329,7 +24691,7 @@
     </row>
     <row r="59" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="208"/>
-      <c r="B59" s="240"/>
+      <c r="B59" s="252"/>
       <c r="C59" s="152" t="s">
         <v>71</v>
       </c>
@@ -25366,7 +24728,7 @@
     </row>
     <row r="60" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="208"/>
-      <c r="B60" s="240"/>
+      <c r="B60" s="252"/>
       <c r="C60" s="164" t="s">
         <v>481</v>
       </c>
@@ -25403,7 +24765,7 @@
     </row>
     <row r="61" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="208"/>
-      <c r="B61" s="240"/>
+      <c r="B61" s="252"/>
       <c r="C61" s="152" t="s">
         <v>98</v>
       </c>
@@ -25440,7 +24802,7 @@
     </row>
     <row r="62" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="208"/>
-      <c r="B62" s="240"/>
+      <c r="B62" s="252"/>
       <c r="C62" s="152" t="s">
         <v>436</v>
       </c>
@@ -25475,7 +24837,7 @@
     </row>
     <row r="63" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="208"/>
-      <c r="B63" s="240"/>
+      <c r="B63" s="252"/>
       <c r="C63" s="222" t="s">
         <v>484</v>
       </c>
@@ -25508,7 +24870,7 @@
     </row>
     <row r="64" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="208"/>
-      <c r="B64" s="240"/>
+      <c r="B64" s="252"/>
       <c r="C64" s="156" t="s">
         <v>485</v>
       </c>
@@ -27091,11 +26453,22 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B39:B65"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C71:C72"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -27117,17 +26490,6 @@
     <mergeCell ref="B29:B38"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B39:B65"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C71:C72"/>
     <mergeCell ref="C74:E74"/>
     <mergeCell ref="B75:B77"/>
     <mergeCell ref="C75:C76"/>
@@ -29498,8 +28860,8 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29597,33 +28959,15 @@
       <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="46">
-        <v>16</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G4" s="46">
-        <v>16</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="J4" s="46">
-        <v>16</v>
-      </c>
-      <c r="K4" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="58"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="262"/>
@@ -29631,31 +28975,15 @@
       <c r="C5" s="45">
         <v>2</v>
       </c>
-      <c r="D5" s="46">
-        <v>16</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G5" s="46">
-        <v>16</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="46"/>
-      <c r="K5" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="K5" s="116"/>
+      <c r="L5" s="58"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="262"/>
@@ -29663,31 +28991,15 @@
       <c r="C6" s="45">
         <v>3</v>
       </c>
-      <c r="D6" s="46">
-        <v>16</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G6" s="46">
-        <v>16</v>
-      </c>
-      <c r="H6" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="46"/>
-      <c r="K6" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L6" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="K6" s="116"/>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="262"/>
@@ -29696,30 +29008,14 @@
         <v>4</v>
       </c>
       <c r="D7" s="46"/>
-      <c r="E7" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G7" s="46">
-        <v>16</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="J7" s="46">
-        <v>16</v>
-      </c>
-      <c r="K7" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L7" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="58"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="262"/>
@@ -29729,33 +29025,15 @@
       <c r="C8" s="45">
         <v>1</v>
       </c>
-      <c r="D8" s="46">
-        <v>36</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G8" s="46">
-        <v>36</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="J8" s="46">
-        <v>18</v>
-      </c>
-      <c r="K8" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L8" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="58"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="262"/>
@@ -29763,33 +29041,15 @@
       <c r="C9" s="45">
         <v>2</v>
       </c>
-      <c r="D9" s="46">
-        <v>36</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G9" s="46">
-        <v>36</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="J9" s="46">
-        <v>18</v>
-      </c>
-      <c r="K9" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L9" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="262"/>
@@ -29797,33 +29057,15 @@
       <c r="C10" s="45">
         <v>3</v>
       </c>
-      <c r="D10" s="46">
-        <v>18</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G10" s="46">
-        <v>36</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="J10" s="46">
-        <v>36</v>
-      </c>
-      <c r="K10" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L10" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="58"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="262"/>
@@ -29831,31 +29073,15 @@
       <c r="C11" s="45">
         <v>4</v>
       </c>
-      <c r="D11" s="46">
-        <v>18</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G11" s="46">
-        <v>18</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="46"/>
-      <c r="K11" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L11" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="K11" s="116"/>
+      <c r="L11" s="58"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="262"/>
@@ -29865,31 +29091,15 @@
       <c r="C12" s="45">
         <v>1</v>
       </c>
-      <c r="D12" s="46">
-        <v>12</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="46"/>
-      <c r="H12" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="J12" s="46">
-        <v>12</v>
-      </c>
-      <c r="K12" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L12" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="H12" s="45"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="58"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="262"/>
@@ -29897,31 +29107,15 @@
       <c r="C13" s="45">
         <v>2</v>
       </c>
-      <c r="D13" s="46">
-        <v>12</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G13" s="46">
-        <v>12</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="46"/>
-      <c r="K13" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L13" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="K13" s="116"/>
+      <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="262"/>
@@ -29930,28 +29124,14 @@
         <v>3</v>
       </c>
       <c r="D14" s="46"/>
-      <c r="E14" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G14" s="46">
-        <v>24</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="46"/>
-      <c r="K14" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L14" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="K14" s="116"/>
+      <c r="L14" s="58"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="262"/>
@@ -29959,31 +29139,15 @@
       <c r="C15" s="45">
         <v>4</v>
       </c>
-      <c r="D15" s="46">
-        <v>12</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="46"/>
-      <c r="H15" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="J15" s="46">
-        <v>12</v>
-      </c>
-      <c r="K15" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L15" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="H15" s="45"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="58"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="262"/>
@@ -29993,31 +29157,15 @@
       <c r="C16" s="45">
         <v>1</v>
       </c>
-      <c r="D16" s="46">
-        <v>12</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="46"/>
-      <c r="H16" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="J16" s="46">
-        <v>12</v>
-      </c>
-      <c r="K16" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L16" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="H16" s="45"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="58"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="262"/>
@@ -30025,31 +29173,15 @@
       <c r="C17" s="45">
         <v>2</v>
       </c>
-      <c r="D17" s="46">
-        <v>12</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="46"/>
-      <c r="H17" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="J17" s="46">
-        <v>12</v>
-      </c>
-      <c r="K17" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L17" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="58"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="262"/>
@@ -30058,28 +29190,14 @@
         <v>3</v>
       </c>
       <c r="D18" s="46"/>
-      <c r="E18" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G18" s="46">
-        <v>12</v>
-      </c>
-      <c r="H18" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="E18" s="45"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="46"/>
-      <c r="K18" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L18" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="K18" s="116"/>
+      <c r="L18" s="58"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="262"/>
@@ -30088,28 +29206,14 @@
         <v>4</v>
       </c>
       <c r="D19" s="46"/>
-      <c r="E19" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G19" s="46">
-        <v>12</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="46"/>
-      <c r="K19" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L19" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="K19" s="116"/>
+      <c r="L19" s="58"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="262"/>
@@ -30119,31 +29223,15 @@
       <c r="C20" s="45">
         <v>1</v>
       </c>
-      <c r="D20" s="46">
-        <v>12</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G20" s="46">
-        <v>12</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="46"/>
-      <c r="K20" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L20" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="K20" s="116"/>
+      <c r="L20" s="58"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="262"/>
@@ -30151,31 +29239,15 @@
       <c r="C21" s="45">
         <v>2</v>
       </c>
-      <c r="D21" s="46">
-        <v>12</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G21" s="46">
-        <v>12</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="46"/>
-      <c r="K21" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L21" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="K21" s="116"/>
+      <c r="L21" s="58"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="262"/>
@@ -30183,31 +29255,15 @@
       <c r="C22" s="45">
         <v>3</v>
       </c>
-      <c r="D22" s="46">
-        <v>12</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="46"/>
-      <c r="H22" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="J22" s="46">
-        <v>12</v>
-      </c>
-      <c r="K22" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="L22" s="58" t="s">
-        <v>441</v>
-      </c>
+      <c r="H22" s="45"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="58"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="258" t="s">
@@ -30215,33 +29271,15 @@
       </c>
       <c r="B23" s="259"/>
       <c r="C23" s="260"/>
-      <c r="D23" s="48">
-        <v>252</v>
-      </c>
-      <c r="E23" s="47">
-        <v>0</v>
-      </c>
-      <c r="F23" s="41">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="48">
-        <v>274</v>
-      </c>
-      <c r="H23" s="47">
-        <v>0</v>
-      </c>
-      <c r="I23" s="41">
-        <v>-1</v>
-      </c>
-      <c r="J23" s="48">
-        <v>164</v>
-      </c>
-      <c r="K23" s="47">
-        <v>0</v>
-      </c>
-      <c r="L23" s="125">
-        <v>-1</v>
-      </c>
+      <c r="D23" s="48"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="125"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
@@ -30681,7 +29719,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A12" sqref="A12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30697,7 +29735,7 @@
       <c r="A1" s="276" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="247" t="s">
+      <c r="B1" s="238" t="s">
         <v>168</v>
       </c>
       <c r="C1" s="278" t="s">
@@ -30718,7 +29756,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="281"/>
-      <c r="B2" s="248"/>
+      <c r="B2" s="239"/>
       <c r="C2" s="207"/>
       <c r="D2" s="283"/>
       <c r="E2" s="278"/>
@@ -30738,15 +29776,9 @@
       <c r="D3" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="26">
-        <v>180</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="G3" s="73" t="s">
-        <v>441</v>
-      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="279" t="s">
@@ -30755,15 +29787,9 @@
       <c r="B4" s="279"/>
       <c r="C4" s="279"/>
       <c r="D4" s="279"/>
-      <c r="E4" s="25">
-        <v>180</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>441</v>
-      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="207" t="s">
@@ -30778,15 +29804,9 @@
       <c r="D5" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="3">
-        <v>10</v>
-      </c>
-      <c r="F5" s="45">
-        <v>3</v>
-      </c>
-      <c r="G5" s="42">
-        <v>-0.7</v>
-      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="208"/>
@@ -30797,15 +29817,9 @@
       <c r="D6" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E6" s="3">
-        <v>130</v>
-      </c>
-      <c r="F6" s="45">
-        <v>34</v>
-      </c>
-      <c r="G6" s="42">
-        <v>-0.7384615384615385</v>
-      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="219"/>
@@ -30814,15 +29828,9 @@
         <v>181</v>
       </c>
       <c r="D7" s="280"/>
-      <c r="E7" s="9">
-        <v>140</v>
-      </c>
-      <c r="F7" s="9">
-        <v>37</v>
-      </c>
-      <c r="G7" s="50">
-        <v>-0.73571428571428577</v>
-      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="279" t="s">
@@ -30831,15 +29839,9 @@
       <c r="B8" s="279"/>
       <c r="C8" s="279"/>
       <c r="D8" s="279"/>
-      <c r="E8" s="25">
-        <v>140</v>
-      </c>
-      <c r="F8" s="10">
-        <v>37</v>
-      </c>
-      <c r="G8" s="49">
-        <v>-0.73571428571428577</v>
-      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="275" t="s">
@@ -30940,7 +29942,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J9"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30958,16 +29960,16 @@
       <c r="A1" s="276" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="247" t="s">
+      <c r="B1" s="238" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="237" t="s">
+      <c r="C1" s="241" t="s">
         <v>170</v>
       </c>
       <c r="D1" s="278" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="256" t="s">
+      <c r="E1" s="250" t="s">
         <v>433</v>
       </c>
       <c r="F1" s="288"/>
@@ -30975,13 +29977,13 @@
       <c r="H1" s="289" t="s">
         <v>434</v>
       </c>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="281"/>
-      <c r="B2" s="247"/>
-      <c r="C2" s="237"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="241"/>
       <c r="D2" s="278"/>
       <c r="E2" s="19" t="s">
         <v>230</v>
